--- a/singers.xlsx
+++ b/singers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\study\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\교육공학\Python DKT Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C97DBF90-C028-4FFE-A194-96C42AFAC826}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B548B064-A354-4C2D-AA59-46F9DF307AEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="6840" xr2:uid="{5C2A7BE8-26E9-40B8-9CDB-9BE633D1EABC}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="19200" windowHeight="6840" xr2:uid="{5C2A7BE8-26E9-40B8-9CDB-9BE633D1EABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,11 +217,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이중국적(대한민국, 뉴질랜드)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>태국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이중국적(대한민국/뉴질랜드)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3275691B-65D0-4591-BF47-A9CF637E9C67}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -837,7 +837,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -857,7 +857,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/singers.xlsx
+++ b/singers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\교육공학\Python DKT Workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\study\python_basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B548B064-A354-4C2D-AA59-46F9DF307AEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2747B115-DF2D-410F-A087-6303BD9F458B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="19200" windowHeight="6840" xr2:uid="{5C2A7BE8-26E9-40B8-9CDB-9BE633D1EABC}"/>
+    <workbookView xWindow="0" yWindow="1660" windowWidth="19200" windowHeight="6840" xr2:uid="{5C2A7BE8-26E9-40B8-9CDB-9BE633D1EABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,21 @@
   <si>
     <t>이중국적(대한민국/뉴질랜드)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>아이유</t>
+  </si>
+  <si>
+    <t>1993년 05월 16일</t>
+  </si>
+  <si>
+    <t>EDAM엔터테인먼트</t>
+  </si>
+  <si>
+    <t>대한민국</t>
   </si>
 </sst>
 </file>
@@ -589,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3275691B-65D0-4591-BF47-A9CF637E9C67}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -860,6 +875,23 @@
         <v>51</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/singers.xlsx
+++ b/singers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\study\python_basics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\교육공학\Python DKT Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2747B115-DF2D-410F-A087-6303BD9F458B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B548B064-A354-4C2D-AA59-46F9DF307AEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1660" windowWidth="19200" windowHeight="6840" xr2:uid="{5C2A7BE8-26E9-40B8-9CDB-9BE633D1EABC}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="19200" windowHeight="6840" xr2:uid="{5C2A7BE8-26E9-40B8-9CDB-9BE633D1EABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,21 +223,6 @@
   <si>
     <t>이중국적(대한민국/뉴질랜드)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>아이유</t>
-  </si>
-  <si>
-    <t>1993년 05월 16일</t>
-  </si>
-  <si>
-    <t>EDAM엔터테인먼트</t>
-  </si>
-  <si>
-    <t>대한민국</t>
   </si>
 </sst>
 </file>
@@ -604,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3275691B-65D0-4591-BF47-A9CF637E9C67}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -875,23 +860,6 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
